--- a/static/xls/tag.xlsx
+++ b/static/xls/tag.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010"/>
+    <workbookView windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377">
   <si>
     <t>AAAA</t>
   </si>
@@ -82,7 +82,7 @@
     <t>AAAE</t>
   </si>
   <si>
-    <t>可定制,联系订购热线02363075555</t>
+    <t>可定制,联系订购热线023-63075555</t>
   </si>
   <si>
     <t>no</t>
@@ -589,9 +589,6 @@
   </si>
   <si>
     <t>BBADA</t>
-  </si>
-  <si>
-    <t>可定制,联系订购热线023-63075555</t>
   </si>
   <si>
     <t>BBADB</t>
@@ -7094,7 +7091,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7231,9 +7228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7246,17 +7242,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7274,7 +7265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7298,43 +7289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7352,7 +7319,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7364,37 +7391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7406,13 +7415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7424,37 +7439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7571,10 +7562,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7586,13 +7577,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7604,10 +7595,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7634,28 +7625,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7664,22 +7655,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7688,46 +7679,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -7742,8 +7733,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8141,8 +8132,8 @@
   <sheetPr/>
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="74.25" customHeight="1" outlineLevelCol="3"/>
@@ -8476,7 +8467,7 @@
         <v>66</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
@@ -8484,133 +8475,133 @@
     </row>
     <row r="31" customHeight="1" spans="1:3">
       <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
       <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" ht="62.25" customHeight="1" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
       <c r="A35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
       <c r="A36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:3">
       <c r="A37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
       <c r="A38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:3">
       <c r="A39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:3">
       <c r="A40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:3">
       <c r="A41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -8618,21 +8609,21 @@
     </row>
     <row r="43" customHeight="1" spans="1:3">
       <c r="A43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:3">
       <c r="A44" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>14</v>
@@ -8640,186 +8631,186 @@
     </row>
     <row r="45" customHeight="1" spans="1:3">
       <c r="A45" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:3">
       <c r="A46" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:3">
       <c r="A47" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:3">
       <c r="A48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
       <c r="A49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
       <c r="A50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
       <c r="A51" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
       <c r="A54" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
       <c r="A55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:3">
       <c r="A56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:3">
       <c r="A57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
       <c r="A58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
       <c r="A60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>14</v>
@@ -8827,21 +8818,21 @@
     </row>
     <row r="62" customHeight="1" spans="1:3">
       <c r="A62" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>14</v>
@@ -8849,10 +8840,10 @@
     </row>
     <row r="64" customHeight="1" spans="1:3">
       <c r="A64" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>14</v>
@@ -8860,98 +8851,98 @@
     </row>
     <row r="65" customHeight="1" spans="1:3">
       <c r="A65" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:3">
       <c r="A66" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
       <c r="A67" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
       <c r="A68" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
       <c r="A69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
       <c r="A70" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:3">
       <c r="A71" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:3">
       <c r="A72" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>14</v>
@@ -8959,21 +8950,21 @@
     </row>
     <row r="74" customHeight="1" spans="1:3">
       <c r="A74" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>14</v>
@@ -8981,21 +8972,21 @@
     </row>
     <row r="76" customHeight="1" spans="1:3">
       <c r="A76" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>14</v>
@@ -9003,10 +8994,10 @@
     </row>
     <row r="78" customHeight="1" spans="1:3">
       <c r="A78" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
@@ -9014,241 +9005,241 @@
     </row>
     <row r="79" customHeight="1" spans="1:3">
       <c r="A79" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:3">
       <c r="A80" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:3">
       <c r="A81" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:3">
       <c r="A82" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="C82" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
       <c r="A83" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:3">
       <c r="A84" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:3">
       <c r="A85" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:3">
       <c r="A86" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:3">
       <c r="A87" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="C87" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:3">
       <c r="A88" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:3">
       <c r="A89" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
       <c r="A92" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:3">
       <c r="A93" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:3">
       <c r="A94" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:3">
       <c r="A95" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:3">
       <c r="A96" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:3">
       <c r="A97" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:3">
       <c r="A98" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:3">
       <c r="A99" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:3">
       <c r="A100" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>14</v>
@@ -9256,10 +9247,10 @@
     </row>
     <row r="101" customHeight="1" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>14</v>
@@ -9267,10 +9258,10 @@
     </row>
     <row r="102" customHeight="1" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>14</v>
@@ -9278,10 +9269,10 @@
     </row>
     <row r="103" customHeight="1" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>14</v>
@@ -9289,62 +9280,62 @@
     </row>
     <row r="104" customHeight="1" spans="1:3">
       <c r="A104" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="C104" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:3">
       <c r="A105" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="106" ht="36" customHeight="1" spans="1:3">
       <c r="A106" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="107" ht="203.25" customHeight="1" spans="1:3">
       <c r="A107" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="C107" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:3">
       <c r="A108" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:3">
       <c r="A109" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>58</v>
@@ -9355,51 +9346,51 @@
     </row>
     <row r="110" customHeight="1" spans="1:3">
       <c r="A110" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:3">
       <c r="A111" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="112" ht="135" customHeight="1" spans="1:3">
       <c r="A112" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="C112" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="113" ht="134.25" customHeight="1" spans="1:3">
       <c r="A113" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="C113" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:3">
       <c r="A114" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>49</v>
@@ -9410,230 +9401,230 @@
     </row>
     <row r="115" ht="139.5" customHeight="1" spans="1:3">
       <c r="A115" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="C115" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="116" ht="168.75" customHeight="1" spans="1:3">
       <c r="A116" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:3">
       <c r="A117" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="C117" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:3">
       <c r="A118" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:3">
       <c r="A119" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:3">
       <c r="A120" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="C120" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:3">
       <c r="A121" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="C121" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:3">
       <c r="A122" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="C122" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:3">
       <c r="A123" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:3">
       <c r="A124" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:3">
       <c r="A125" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:3">
       <c r="A126" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:3">
       <c r="A127" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:3">
       <c r="A128" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:3">
       <c r="A129" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:3">
       <c r="A130" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:3">
       <c r="A131" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="C131" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:3">
       <c r="A132" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B132" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:3">
       <c r="A133" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:3">
       <c r="A134" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="C134" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:3">
       <c r="A135" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>14</v>
@@ -9641,10 +9632,10 @@
     </row>
     <row r="136" customHeight="1" spans="1:3">
       <c r="A136" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>14</v>
@@ -9652,197 +9643,197 @@
     </row>
     <row r="137" customHeight="1" spans="1:3">
       <c r="A137" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="C137" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:3">
       <c r="A138" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:3">
       <c r="A139" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:3">
       <c r="A140" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="C140" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:3">
       <c r="A141" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:3">
       <c r="A142" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:3">
       <c r="A143" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="C143" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:3">
       <c r="A144" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="C144" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="145" ht="114" spans="1:3">
       <c r="A145" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="C145" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="146" ht="142.5" spans="1:3">
       <c r="A146" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="C146" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:3">
       <c r="A147" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="C147" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:3">
       <c r="A148" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="C148" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:3">
       <c r="A149" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="C149" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:3">
       <c r="A150" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="C150" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:3">
       <c r="A151" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="C151" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:3">
       <c r="A152" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="C152" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:3">
       <c r="A153" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="C153" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:3">
       <c r="A154" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>14</v>
@@ -9850,10 +9841,10 @@
     </row>
     <row r="155" customHeight="1" spans="1:3">
       <c r="A155" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>14</v>

--- a/static/xls/tag.xlsx
+++ b/static/xls/tag.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\wewin\开发\打印机标签问题筛选展示\wewin-tag-question\static\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="380">
   <si>
     <t>AAAA</t>
   </si>
@@ -3729,7 +3734,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 30mm*45mm+35mm
 UNQS-08FRD-200(</t>
@@ -3748,7 +3753,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 30mm*45mm+35mm
 UNQS-08FYL-200(</t>
@@ -3767,7 +3772,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 30mm*45mm+35mm</t>
     </r>
@@ -3815,7 +3820,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>023-63075555</t>
     </r>
@@ -3857,7 +3862,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 30mm*45mm+50mm
 QS-03F-150(203</t>
@@ -3876,7 +3881,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 30mm*45mm+50mm</t>
     </r>
@@ -3985,7 +3990,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>409</t>
     </r>
@@ -4003,7 +4008,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 45mm*60mm
 P50-20-750 50mm*20mm
@@ -4043,7 +4048,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D404) 60mm*38mm
 P60-38PK-400 60mm*38mm
@@ -4122,7 +4127,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>114</t>
     </r>
@@ -4140,7 +4145,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>80mm*40mm
 P85-140-100 85mm*140mm
@@ -4163,7 +4168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>002) 97mm*145mm
 P100-45-350 100mm*45mm
@@ -4234,7 +4239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>38mm*60mm
 CT38-60SL-250</t>
@@ -4253,7 +4258,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[C] 38mm*60mm
 CT40-100-150(203) 40mm*100mm
@@ -4276,7 +4281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>203</t>
     </r>
@@ -4294,7 +4299,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>40mm*20mm
 CT40-20B-650</t>
@@ -4313,7 +4318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>203</t>
     </r>
@@ -4331,7 +4336,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">40mm*20mm
 CT40-20BL-1400(203)[C] 40mm*20mm
@@ -4392,7 +4397,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 42mm*55mm
 CT44-12-2400(203)[C] 44mm*12mm
@@ -4418,7 +4423,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) 45mm*75mm
 CT50-140-100 50mm*140mm
@@ -4480,7 +4485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 75mm*45mm
 CT80-10-1200(203)[C] 80mm*10mm
@@ -4500,7 +4505,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 85mm*55mm</t>
     </r>
@@ -4546,7 +4551,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>60mm*38mm
 CT60-38SL-1000(3D409</t>
@@ -4565,7 +4570,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -4583,7 +4588,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>60mm*38mm
 CT60-38SL-400</t>
@@ -4602,7 +4607,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[C] 60mm*38mm
 CT60-38SL-500</t>
@@ -4621,7 +4626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[C] 60mm*38mm
 CT90-120-100 90mm*120mm
@@ -4646,7 +4651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>203</t>
     </r>
@@ -4664,7 +4669,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[C] 90mm*50mm
 CT90-55-300 90mm*55mm
@@ -4701,7 +4706,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>203</t>
     </r>
@@ -4719,7 +4724,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>100mm*40m
 CT100-45-350 100mm*45mm
@@ -4815,7 +4820,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 38mm*60mm
 TCM38-60SL-250(</t>
@@ -4834,7 +4839,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2) 38mm*60mm
 TCM40-100-150 40mm*100mm
@@ -4858,7 +4863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>701</t>
     </r>
@@ -4876,7 +4881,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 45mm*100mm
 </t>
@@ -4936,7 +4941,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>403</t>
     </r>
@@ -4954,7 +4959,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>45mm*100mm
 TCM45-100D-150 45mm*100mm
@@ -4975,7 +4980,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 45mm*60mm
 TCM50-100-150 50mm*100mm
@@ -5002,7 +5007,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>403</t>
     </r>
@@ -5020,7 +5025,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>49mm*90mm
 TCM50-90B-150 49mm*90mm
@@ -5042,7 +5047,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>404</t>
     </r>
@@ -5060,7 +5065,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50mm*90mm
 TCM55-90B-150 55mm*90mm
@@ -5119,7 +5124,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>203</t>
     </r>
@@ -5137,7 +5142,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>70mm*35mm
 TCM70-35B-450</t>
@@ -5156,7 +5161,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>203</t>
     </r>
@@ -5174,7 +5179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>70mm*35mm
 TCM75-25-600 75mm*25mm
@@ -5194,7 +5199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>203</t>
     </r>
@@ -5212,7 +5217,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>80mm*50mm
 TCM85-140-100 85mm*140mm
@@ -5236,7 +5241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) 85mm*140mm
 TCM90-30-500 90mm*30mm
@@ -5319,7 +5324,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">38mm*60mm
 UN40-30-500 40mm*30mm
@@ -5374,7 +5379,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50mm*140mm
 UN50-140C-100 50mm*140mm
@@ -5442,7 +5447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>35mm*65mm
 NY38-60SL-250 38mm*60mm
@@ -5491,7 +5496,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) 20mm*20mm
 P35-35SL-450(409) 35mm*35mm
@@ -5561,7 +5566,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>441</t>
     </r>
@@ -5579,7 +5584,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50mm*90mm</t>
     </r>
@@ -5711,7 +5716,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) 90mm*55mm
 CTGA44-79YL-200(203) 44mm*79mm
@@ -5731,7 +5736,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>217</t>
     </r>
@@ -5749,7 +5754,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">79mm*44mm
 CTGA79-44RD-300(415) 79mm*44mm
@@ -5799,7 +5804,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) 50mm*65mm
 </t>
@@ -5859,7 +5864,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>605</t>
     </r>
@@ -5877,7 +5882,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>45mm*80mm
 G50-20-200(SW) 50mm*20mm
@@ -5898,7 +5903,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>601</t>
     </r>
@@ -5916,7 +5921,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50mm*70mm
 G70-30-600(601) 70mm*30mm
@@ -6034,7 +6039,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CTKPG86-54B(</t>
     </r>
@@ -6052,7 +6057,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm</t>
     </r>
@@ -6088,7 +6093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B[C] 85.6mm*54mm
@@ -6130,7 +6135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2)[C] 85.6mm*54mm
 TCMKPG86-54B</t>
@@ -6149,7 +6154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6168,7 +6173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 KPG86-54B(T</t>
@@ -6187,7 +6192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6206,7 +6211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6225,7 +6230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>BL)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6244,7 +6249,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>RD)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6263,7 +6268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6282,7 +6287,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6301,7 +6306,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6320,7 +6325,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6339,7 +6344,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6358,7 +6363,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6377,7 +6382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6396,7 +6401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54D(</t>
@@ -6415,7 +6420,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6434,7 +6439,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6453,7 +6458,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6472,7 +6477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6491,7 +6496,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6510,7 +6515,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2RD)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6529,7 +6534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6548,7 +6553,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 TCMKPG86-54B(</t>
@@ -6567,7 +6572,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2)[C] 85.6mm*54mm
 TCMKPG86-54B-250[C] 85.6mm*54mm
@@ -6629,7 +6634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>BL)[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6648,7 +6653,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>GR)[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6667,7 +6672,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>WT)[C] 85.6mm*54mm
 UNKPG86-54A</t>
@@ -6686,7 +6691,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[C] 85.6mm*54mm
 UNKPG86-54B[C] 85.6mm*54mm
@@ -6706,7 +6711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 KPG86-54B(</t>
@@ -6725,7 +6730,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)[C] 85.6mm*54mm
 </t>
@@ -6768,7 +6773,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>721</t>
     </r>
@@ -6786,7 +6791,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6805,7 +6810,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2)[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6824,7 +6829,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3)[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6843,7 +6848,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4)[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6862,7 +6867,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5)[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6881,7 +6886,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2WT)[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6900,7 +6905,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2RD)[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6919,7 +6924,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2BL)[C] 85.6mm*54mm
 UNKPG86-54B(</t>
@@ -6938,7 +6943,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2GR)[C] 85.6mm*54mm
 </t>
@@ -6996,7 +7001,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)[C] 85.6mm*54mm
 KPG86-54B(</t>
@@ -7015,7 +7020,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2)[C] 85.6mm*54mm
 </t>
@@ -7079,19 +7084,31 @@
   </si>
   <si>
     <t>DBF</t>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT60-38-150(RF526) 60mm*38mm
+TCMKPG110-68B(RF) 68mm*110mm
+TCMLKPG110-68B(RF) 68mm*110mm
+KPG110-68B(RF) 68mm*110mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT60-38-150(RF526).jpg
+TCMKPG110-68B(RF).jpg
+TCMLKPG110-68B(RF).jpg
+KPG110-68B(RF).jpg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7109,348 +7126,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -7458,267 +7156,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -7733,113 +7174,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="37">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="37" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="37" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="14">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="17"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="21"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="计算" xfId="27" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
-    <cellStyle name="汇总" xfId="32" builtinId="25"/>
-    <cellStyle name="好" xfId="33" builtinId="26"/>
-    <cellStyle name="适中" xfId="34" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
-    <cellStyle name="常规 2 2 2" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="常规 2 2 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="45" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="46" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="47" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="50" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="55"/>
-    <cellStyle name="常规 2 2 3 2" xfId="56"/>
-    <cellStyle name="常规 2 4" xfId="57"/>
-    <cellStyle name="常规 2 4 2" xfId="58"/>
-    <cellStyle name="常规 3" xfId="59"/>
-    <cellStyle name="常规 4" xfId="60"/>
-    <cellStyle name="常规 5" xfId="61"/>
+    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 2 2" xfId="5"/>
+    <cellStyle name="常规 2 2 2" xfId="3"/>
+    <cellStyle name="常规 2 2 3" xfId="4"/>
+    <cellStyle name="常规 2 2 3 2" xfId="8"/>
+    <cellStyle name="常规 2 3" xfId="6"/>
+    <cellStyle name="常规 2 4" xfId="9"/>
+    <cellStyle name="常规 2 4 2" xfId="10"/>
+    <cellStyle name="常规 3" xfId="11"/>
+    <cellStyle name="常规 4" xfId="12"/>
+    <cellStyle name="常规 5" xfId="13"/>
+    <cellStyle name="常规 5 2" xfId="1"/>
+    <cellStyle name="常规 5 2 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -8124,26 +7536,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="74.25" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.125" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
     <col min="4" max="4" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="135" spans="1:3">
+    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8154,7 +7566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8165,7 +7577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -8176,7 +7588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -8187,7 +7599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -8198,7 +7610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -8209,7 +7621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -8220,7 +7632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -8231,7 +7643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -8242,7 +7654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -8253,7 +7665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -8264,7 +7676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -8275,7 +7687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -8286,7 +7698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -8297,7 +7709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -8308,7 +7720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -8319,7 +7731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -8330,7 +7742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -8341,7 +7753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -8352,7 +7764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -8363,7 +7775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" ht="138" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -8374,7 +7786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="101.25" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -8385,7 +7797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" ht="91.5" customHeight="1" spans="1:3">
+    <row r="23" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -8396,7 +7808,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:3">
+    <row r="24" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -8407,7 +7819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:3">
+    <row r="25" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
@@ -8418,7 +7830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:3">
+    <row r="26" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -8429,7 +7841,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:3">
+    <row r="27" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -8440,7 +7852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:3">
+    <row r="28" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
@@ -8451,7 +7863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" ht="207" customHeight="1" spans="1:3">
+    <row r="29" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
@@ -8462,7 +7874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:3">
+    <row r="30" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -8473,7 +7885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:3">
+    <row r="31" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
@@ -8484,7 +7896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:3">
+    <row r="32" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>70</v>
       </c>
@@ -8495,7 +7907,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
@@ -8507,7 +7919,7 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" ht="62.25" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -8519,7 +7931,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" customHeight="1" spans="1:3">
+    <row r="35" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>77</v>
       </c>
@@ -8530,7 +7942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:3">
+    <row r="36" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>80</v>
       </c>
@@ -8541,7 +7953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:3">
+    <row r="37" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>83</v>
       </c>
@@ -8552,7 +7964,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:3">
+    <row r="38" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>86</v>
       </c>
@@ -8563,7 +7975,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:3">
+    <row r="39" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>89</v>
       </c>
@@ -8574,7 +7986,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:3">
+    <row r="40" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -8585,7 +7997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:3">
+    <row r="41" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>95</v>
       </c>
@@ -8596,7 +8008,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:3">
+    <row r="42" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>98</v>
       </c>
@@ -8607,7 +8019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:3">
+    <row r="43" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -8618,7 +8030,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:3">
+    <row r="44" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -8629,7 +8041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:3">
+    <row r="45" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>103</v>
       </c>
@@ -8640,7 +8052,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:3">
+    <row r="46" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>106</v>
       </c>
@@ -8651,7 +8063,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:3">
+    <row r="47" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>109</v>
       </c>
@@ -8662,7 +8074,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:3">
+    <row r="48" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>112</v>
       </c>
@@ -8673,7 +8085,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:3">
+    <row r="49" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>115</v>
       </c>
@@ -8684,7 +8096,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:3">
+    <row r="50" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>118</v>
       </c>
@@ -8695,7 +8107,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:3">
+    <row r="51" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -8706,7 +8118,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:3">
+    <row r="52" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -8717,7 +8129,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:3">
+    <row r="53" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>127</v>
       </c>
@@ -8728,7 +8140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:3">
+    <row r="54" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>130</v>
       </c>
@@ -8739,7 +8151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:3">
+    <row r="55" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>133</v>
       </c>
@@ -8750,7 +8162,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:3">
+    <row r="56" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>136</v>
       </c>
@@ -8761,7 +8173,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:3">
+    <row r="57" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>139</v>
       </c>
@@ -8772,7 +8184,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:3">
+    <row r="58" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>142</v>
       </c>
@@ -8783,7 +8195,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:3">
+    <row r="59" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>145</v>
       </c>
@@ -8794,7 +8206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:3">
+    <row r="60" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>148</v>
       </c>
@@ -8805,7 +8217,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:3">
+    <row r="61" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>151</v>
       </c>
@@ -8816,7 +8228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:3">
+    <row r="62" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>152</v>
       </c>
@@ -8827,7 +8239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:3">
+    <row r="63" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>155</v>
       </c>
@@ -8838,7 +8250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:3">
+    <row r="64" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>156</v>
       </c>
@@ -8849,7 +8261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:3">
+    <row r="65" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>157</v>
       </c>
@@ -8860,7 +8272,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:3">
+    <row r="66" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>160</v>
       </c>
@@ -8871,7 +8283,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:3">
+    <row r="67" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>163</v>
       </c>
@@ -8882,7 +8294,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:3">
+    <row r="68" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>166</v>
       </c>
@@ -8893,7 +8305,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:3">
+    <row r="69" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>169</v>
       </c>
@@ -8904,7 +8316,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:3">
+    <row r="70" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>172</v>
       </c>
@@ -8915,7 +8327,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:3">
+    <row r="71" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>175</v>
       </c>
@@ -8926,7 +8338,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:3">
+    <row r="72" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>178</v>
       </c>
@@ -8937,7 +8349,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:3">
+    <row r="73" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>181</v>
       </c>
@@ -8948,7 +8360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:3">
+    <row r="74" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>182</v>
       </c>
@@ -8959,7 +8371,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:3">
+    <row r="75" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>185</v>
       </c>
@@ -8970,7 +8382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:3">
+    <row r="76" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>186</v>
       </c>
@@ -8981,7 +8393,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:3">
+    <row r="77" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>189</v>
       </c>
@@ -8992,7 +8404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:3">
+    <row r="78" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>189</v>
       </c>
@@ -9003,7 +8415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:3">
+    <row r="79" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>190</v>
       </c>
@@ -9014,7 +8426,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:3">
+    <row r="80" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>193</v>
       </c>
@@ -9025,7 +8437,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:3">
+    <row r="81" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>196</v>
       </c>
@@ -9036,7 +8448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:3">
+    <row r="82" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>199</v>
       </c>
@@ -9047,7 +8459,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:3">
+    <row r="83" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>201</v>
       </c>
@@ -9058,7 +8470,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:3">
+    <row r="84" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>204</v>
       </c>
@@ -9069,7 +8481,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:3">
+    <row r="85" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>207</v>
       </c>
@@ -9080,7 +8492,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:3">
+    <row r="86" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>210</v>
       </c>
@@ -9091,7 +8503,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:3">
+    <row r="87" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>213</v>
       </c>
@@ -9102,7 +8514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:3">
+    <row r="88" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>215</v>
       </c>
@@ -9113,7 +8525,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:3">
+    <row r="89" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>218</v>
       </c>
@@ -9124,7 +8536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:3">
+    <row r="90" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>219</v>
       </c>
@@ -9135,7 +8547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:3">
+    <row r="91" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>222</v>
       </c>
@@ -9146,7 +8558,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:3">
+    <row r="92" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>225</v>
       </c>
@@ -9157,7 +8569,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:3">
+    <row r="93" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>228</v>
       </c>
@@ -9168,7 +8580,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:3">
+    <row r="94" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>231</v>
       </c>
@@ -9179,7 +8591,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:3">
+    <row r="95" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>234</v>
       </c>
@@ -9190,7 +8602,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:3">
+    <row r="96" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>237</v>
       </c>
@@ -9201,7 +8613,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:3">
+    <row r="97" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>238</v>
       </c>
@@ -9212,7 +8624,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:3">
+    <row r="98" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>241</v>
       </c>
@@ -9223,7 +8635,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:3">
+    <row r="99" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>242</v>
       </c>
@@ -9234,7 +8646,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:3">
+    <row r="100" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>245</v>
       </c>
@@ -9245,7 +8657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:3">
+    <row r="101" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>247</v>
       </c>
@@ -9256,7 +8668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:3">
+    <row r="102" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>248</v>
       </c>
@@ -9267,7 +8679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:3">
+    <row r="103" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>249</v>
       </c>
@@ -9278,7 +8690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:3">
+    <row r="104" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>250</v>
       </c>
@@ -9289,7 +8701,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:3">
+    <row r="105" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>252</v>
       </c>
@@ -9300,7 +8712,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" ht="36" customHeight="1" spans="1:3">
+    <row r="106" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>255</v>
       </c>
@@ -9311,7 +8723,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" ht="203.25" customHeight="1" spans="1:3">
+    <row r="107" spans="1:3" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>258</v>
       </c>
@@ -9322,7 +8734,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:3">
+    <row r="108" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>261</v>
       </c>
@@ -9333,7 +8745,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:3">
+    <row r="109" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>264</v>
       </c>
@@ -9344,7 +8756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:3">
+    <row r="110" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>265</v>
       </c>
@@ -9355,7 +8767,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:3">
+    <row r="111" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>268</v>
       </c>
@@ -9366,7 +8778,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="112" ht="135" customHeight="1" spans="1:3">
+    <row r="112" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>271</v>
       </c>
@@ -9377,7 +8789,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" ht="134.25" customHeight="1" spans="1:3">
+    <row r="113" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>274</v>
       </c>
@@ -9388,7 +8800,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:3">
+    <row r="114" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>277</v>
       </c>
@@ -9399,7 +8811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" ht="139.5" customHeight="1" spans="1:3">
+    <row r="115" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>278</v>
       </c>
@@ -9410,7 +8822,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" ht="168.75" customHeight="1" spans="1:3">
+    <row r="116" spans="1:3" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>281</v>
       </c>
@@ -9421,7 +8833,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:3">
+    <row r="117" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>284</v>
       </c>
@@ -9432,7 +8844,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:3">
+    <row r="118" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>287</v>
       </c>
@@ -9443,7 +8855,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:3">
+    <row r="119" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>290</v>
       </c>
@@ -9454,7 +8866,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:3">
+    <row r="120" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>293</v>
       </c>
@@ -9465,7 +8877,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:3">
+    <row r="121" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>296</v>
       </c>
@@ -9476,7 +8888,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:3">
+    <row r="122" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>299</v>
       </c>
@@ -9487,7 +8899,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:3">
+    <row r="123" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>302</v>
       </c>
@@ -9498,7 +8910,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:3">
+    <row r="124" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>304</v>
       </c>
@@ -9509,7 +8921,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:3">
+    <row r="125" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>307</v>
       </c>
@@ -9520,7 +8932,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:3">
+    <row r="126" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>308</v>
       </c>
@@ -9531,7 +8943,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:3">
+    <row r="127" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>309</v>
       </c>
@@ -9542,7 +8954,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:3">
+    <row r="128" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>310</v>
       </c>
@@ -9553,7 +8965,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:3">
+    <row r="129" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>313</v>
       </c>
@@ -9564,7 +8976,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:3">
+    <row r="130" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>316</v>
       </c>
@@ -9575,7 +8987,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:3">
+    <row r="131" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>319</v>
       </c>
@@ -9586,7 +8998,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:3">
+    <row r="132" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>322</v>
       </c>
@@ -9597,7 +9009,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:3">
+    <row r="133" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>323</v>
       </c>
@@ -9608,7 +9020,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:3">
+    <row r="134" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>324</v>
       </c>
@@ -9619,7 +9031,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:3">
+    <row r="135" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>327</v>
       </c>
@@ -9630,7 +9042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:3">
+    <row r="136" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>328</v>
       </c>
@@ -9641,7 +9053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:3">
+    <row r="137" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>329</v>
       </c>
@@ -9652,7 +9064,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:3">
+    <row r="138" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>332</v>
       </c>
@@ -9663,7 +9075,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:3">
+    <row r="139" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>333</v>
       </c>
@@ -9674,7 +9086,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:3">
+    <row r="140" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>334</v>
       </c>
@@ -9685,7 +9097,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:3">
+    <row r="141" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>337</v>
       </c>
@@ -9696,7 +9108,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:3">
+    <row r="142" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>340</v>
       </c>
@@ -9707,7 +9119,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:3">
+    <row r="143" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>343</v>
       </c>
@@ -9718,7 +9130,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:3">
+    <row r="144" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>346</v>
       </c>
@@ -9729,7 +9141,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="145" ht="114" spans="1:3">
+    <row r="145" spans="1:3" ht="114" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>349</v>
       </c>
@@ -9740,7 +9152,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="146" ht="142.5" spans="1:3">
+    <row r="146" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>352</v>
       </c>
@@ -9751,7 +9163,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:3">
+    <row r="147" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>355</v>
       </c>
@@ -9762,7 +9174,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:3">
+    <row r="148" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>358</v>
       </c>
@@ -9773,7 +9185,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:3">
+    <row r="149" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>361</v>
       </c>
@@ -9784,7 +9196,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:3">
+    <row r="150" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>364</v>
       </c>
@@ -9795,7 +9207,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:3">
+    <row r="151" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>367</v>
       </c>
@@ -9806,7 +9218,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:3">
+    <row r="152" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>370</v>
       </c>
@@ -9817,7 +9229,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:3">
+    <row r="153" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>373</v>
       </c>
@@ -9828,7 +9240,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:3">
+    <row r="154" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>376</v>
       </c>
@@ -9839,7 +9251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:3">
+    <row r="155" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>376</v>
       </c>
@@ -9850,40 +9262,45 @@
         <v>14</v>
       </c>
     </row>
+    <row r="156" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>